--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H2">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I2">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J2">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N2">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q2">
-        <v>2159.925934573007</v>
+        <v>2174.22298191</v>
       </c>
       <c r="R2">
-        <v>19439.33341115707</v>
+        <v>19568.00683719</v>
       </c>
       <c r="S2">
-        <v>0.09256687436962606</v>
+        <v>0.08950859800776299</v>
       </c>
       <c r="T2">
-        <v>0.09256687436962606</v>
+        <v>0.08950859800776299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H3">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I3">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J3">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q3">
-        <v>4.714848280823556</v>
+        <v>4.02963138725</v>
       </c>
       <c r="R3">
-        <v>42.433634527412</v>
+        <v>36.26668248525</v>
       </c>
       <c r="S3">
-        <v>0.0002020619140207326</v>
+        <v>0.0001658922102111029</v>
       </c>
       <c r="T3">
-        <v>0.0002020619140207325</v>
+        <v>0.0001658922102111028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H4">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I4">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J4">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N4">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q4">
-        <v>92.115883153632</v>
+        <v>30.951611698875</v>
       </c>
       <c r="R4">
-        <v>829.042948382688</v>
+        <v>278.564505289875</v>
       </c>
       <c r="S4">
-        <v>0.003947764711207597</v>
+        <v>0.001274218602368566</v>
       </c>
       <c r="T4">
-        <v>0.003947764711207596</v>
+        <v>0.001274218602368566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H5">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I5">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J5">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N5">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q5">
-        <v>511.9571491689684</v>
+        <v>311.416715936375</v>
       </c>
       <c r="R5">
-        <v>4607.614342520716</v>
+        <v>2802.750443427375</v>
       </c>
       <c r="S5">
-        <v>0.02194069359101627</v>
+        <v>0.01282043004400574</v>
       </c>
       <c r="T5">
-        <v>0.02194069359101627</v>
+        <v>0.01282043004400574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
         <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J6">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N6">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q6">
-        <v>9245.099133540998</v>
+        <v>10888.77933453795</v>
       </c>
       <c r="R6">
-        <v>83205.89220186899</v>
+        <v>97999.01401084154</v>
       </c>
       <c r="S6">
-        <v>0.3962126276327193</v>
+        <v>0.4482702006002154</v>
       </c>
       <c r="T6">
-        <v>0.3962126276327194</v>
+        <v>0.4482702006002154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
         <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J7">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q7">
         <v>20.18089558447578</v>
@@ -883,10 +883,10 @@
         <v>181.628060260282</v>
       </c>
       <c r="S7">
-        <v>0.0008648826315444972</v>
+        <v>0.0008308088385307368</v>
       </c>
       <c r="T7">
-        <v>0.0008648826315444973</v>
+        <v>0.0008308088385307365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
         <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J8">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N8">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q8">
-        <v>394.282256579952</v>
+        <v>155.0095241571244</v>
       </c>
       <c r="R8">
-        <v>3548.540309219568</v>
+        <v>1395.085717414119</v>
       </c>
       <c r="S8">
-        <v>0.01689755909071216</v>
+        <v>0.006381445371792598</v>
       </c>
       <c r="T8">
-        <v>0.01689755909071216</v>
+        <v>0.006381445371792597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
         <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J9">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N9">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q9">
-        <v>2191.322637703236</v>
+        <v>1559.613677682136</v>
       </c>
       <c r="R9">
-        <v>19721.90373932913</v>
+        <v>14036.52309913922</v>
       </c>
       <c r="S9">
-        <v>0.0939124273016764</v>
+        <v>0.06420630951128346</v>
       </c>
       <c r="T9">
-        <v>0.09391242730167641</v>
+        <v>0.06420630951128346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H10">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N10">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q10">
-        <v>1861.638194267314</v>
+        <v>2570.916565858854</v>
       </c>
       <c r="R10">
-        <v>16754.74374840583</v>
+        <v>23138.24909272968</v>
       </c>
       <c r="S10">
-        <v>0.07978330464581734</v>
+        <v>0.1058397134606704</v>
       </c>
       <c r="T10">
-        <v>0.07978330464581734</v>
+        <v>0.1058397134606704</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H11">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q11">
-        <v>4.063723435726001</v>
+        <v>4.764849867737557</v>
       </c>
       <c r="R11">
-        <v>36.57351092153401</v>
+        <v>42.88364880963801</v>
       </c>
       <c r="S11">
-        <v>0.0001741569795179656</v>
+        <v>0.0001961597476096948</v>
       </c>
       <c r="T11">
-        <v>0.0001741569795179655</v>
+        <v>0.0001961597476096948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H12">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N12">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q12">
-        <v>79.39459572782401</v>
+        <v>36.59882722183568</v>
       </c>
       <c r="R12">
-        <v>714.551361550416</v>
+        <v>329.389444996521</v>
       </c>
       <c r="S12">
-        <v>0.003402574806259553</v>
+        <v>0.001506703654874009</v>
       </c>
       <c r="T12">
-        <v>0.003402574806259552</v>
+        <v>0.001506703654874008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H13">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N13">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q13">
-        <v>441.255400227218</v>
+        <v>368.235641214158</v>
       </c>
       <c r="R13">
-        <v>3971.298602044963</v>
+        <v>3314.120770927421</v>
       </c>
       <c r="S13">
-        <v>0.01891066380747295</v>
+        <v>0.01515955642811491</v>
       </c>
       <c r="T13">
-        <v>0.01891066380747295</v>
+        <v>0.01515955642811491</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H14">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N14">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q14">
-        <v>4936.382086047431</v>
+        <v>5318.582079971014</v>
       </c>
       <c r="R14">
-        <v>44427.43877442688</v>
+        <v>47867.23871973912</v>
       </c>
       <c r="S14">
-        <v>0.2115560784217159</v>
+        <v>0.2189558427669694</v>
       </c>
       <c r="T14">
-        <v>0.2115560784217159</v>
+        <v>0.2189558427669694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H15">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q15">
-        <v>10.77550494641845</v>
+        <v>9.857280262160224</v>
       </c>
       <c r="R15">
-        <v>96.97954451776602</v>
+        <v>88.71552235944201</v>
       </c>
       <c r="S15">
-        <v>0.0004618004704136236</v>
+        <v>0.0004058053584092225</v>
       </c>
       <c r="T15">
-        <v>0.0004618004704136235</v>
+        <v>0.0004058053584092224</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H16">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N16">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q16">
-        <v>210.525364856976</v>
+        <v>75.71380152703766</v>
       </c>
       <c r="R16">
-        <v>1894.728283712784</v>
+        <v>681.424213743339</v>
       </c>
       <c r="S16">
-        <v>0.009022381132799295</v>
+        <v>0.003116992268460759</v>
       </c>
       <c r="T16">
-        <v>0.009022381132799294</v>
+        <v>0.003116992268460758</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H17">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N17">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q17">
-        <v>1170.047574099437</v>
+        <v>761.7872585118265</v>
       </c>
       <c r="R17">
-        <v>10530.42816689494</v>
+        <v>6856.085326606439</v>
       </c>
       <c r="S17">
-        <v>0.05014414849348042</v>
+        <v>0.03136132312872104</v>
       </c>
       <c r="T17">
-        <v>0.05014414849348042</v>
+        <v>0.03136132312872104</v>
       </c>
     </row>
   </sheetData>
